--- a/medicine/Psychotrope/In_de_Verzekering_tegen_de_Grote_Dorst/In_de_Verzekering_tegen_de_Grote_Dorst.xlsx
+++ b/medicine/Psychotrope/In_de_Verzekering_tegen_de_Grote_Dorst/In_de_Verzekering_tegen_de_Grote_Dorst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 In de Verzekering tegen de Grote Dorst (Dans l'assurance contre la grande soif en néerlandais) est un café situé dans le Pajottenland. Le pub se trouve dans le centre du lieu-dit d'Eizeringen dans la commune de Lennik et fait partie, tout comme l'église Sainte-Ursule et le château Neufcour, du patrimoine protégé communal.
@@ -513,9 +525,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le café a été élu en 2015[1], 2018[2] et 2019 comme meilleure destination au monde pour boire une bière par les utilisateurs du site web RateBeer[3]. Auparavant, il a aussi reçu le prix du meilleur bar à bière de Belgique et du monde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le café a été élu en 2015, 2018 et 2019 comme meilleure destination au monde pour boire une bière par les utilisateurs du site web RateBeer. Auparavant, il a aussi reçu le prix du meilleur bar à bière de Belgique et du monde.
 En 2009, le café recevait le titre de 'Strafste café van Vlaanderen' (traduit librement par "café le plus dingue de Flandres") après un vote organisé par "Vlanderen Vakantieland en Toerisme Vlaanderen".
 </t>
         </is>
@@ -545,11 +559,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auberge est une des plus veilles bâtisses du village. Le café aurait été construit avec les restes de la taille de pierres utilisés pour la construction de l'église Sainte-Ursule au milieu du dix-neuvième siècle[4],[5].
-Les données cadastrales remontent en tout cas jusqu'à l'année 1842[6].
-En 1999, Margriet (85), la propriétaire des lieux, mit le café en vente. Voyant qu'il allait disparaître faute d'acquéreurs, Yves et Kurt Panneels, deux frères habitant la commune d'Eizeringen achetèrent le café, le rénovèrent et décidèrent de n'ouvrir le café que les dimanches[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auberge est une des plus veilles bâtisses du village. Le café aurait été construit avec les restes de la taille de pierres utilisés pour la construction de l'église Sainte-Ursule au milieu du dix-neuvième siècle,.
+Les données cadastrales remontent en tout cas jusqu'à l'année 1842.
+En 1999, Margriet (85), la propriétaire des lieux, mit le café en vente. Voyant qu'il allait disparaître faute d'acquéreurs, Yves et Kurt Panneels, deux frères habitant la commune d'Eizeringen achetèrent le café, le rénovèrent et décidèrent de n'ouvrir le café que les dimanches.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Trivia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1980, à la suite de l'intervention de jeunes de la commune qui ont remplacé trois lettres de la devanture, le café s'est appelé durant quelques jours 'In de verzekering tegen de blote borst' (Traduction "Dans l'assurance contre le sein nu").
 </t>
@@ -609,7 +627,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Notation de la bière</t>
         </is>
